--- a/Eduma.xlsx
+++ b/Eduma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>Senario id</t>
   </si>
@@ -202,9 +202,6 @@
     <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected 6. As Expected 7. As Expected  8.There is no Black Boxed back ground</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                                        2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login         6. Option should be displayed on top right ahnd corner                                       7.Option should displayed - user name, login date time and the logout                                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected 6. As Expected        7. Option displayed - Testing UK, Edit my profile, Logout, Profile </t>
   </si>
   <si>
@@ -212,24 +209,229 @@
   </si>
   <si>
     <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected 6a.Eduma contact information not fully displayed  6b. As Expected         6c. As Expected  6d. As Expected       6e. As Expected</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Logo on the top left hand corner of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on  logo on the top left hand corner of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6.Logo should be clickable and linked to home page                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Home button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Home button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Home button should be clickable and linked to home page                              </t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Courses button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Courses button on the top of home page   </t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Features button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Features button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Features button should be clickable and linked to Features page                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Courses button should be clickable and linked to Courses page                              </t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Events button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Events button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Events button should be clickable and linked to Events page                              </t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Portfolio button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Portfolio button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Portfolio button should be clickable and linked to Portfolio page                              </t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Blog button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Blog button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Blog button should be clickable and linked to Blog page                              </t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Contact button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Contact button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Contact button should be clickable and linked to Contact page                              </t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Shop button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Shop button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Shop button should be clickable and linked to Shop page  and shopping basket should be displayed next to Shop button                            </t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Profile button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Profile button on the top of home page   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Profile button should be clickable and linked to Profile page                           </t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After login, validate the Logout button on the top of the Home Page screen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Logout button on the top of home page   </t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for number of students under the Search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. The tab should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Tab is not clickable</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for number of courses under the Search bar</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for learn anything  under the Search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "learn anything online" under the search bar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "more than 30000 courses" under the search bar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "over 7 million students" under the search bar   </t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>After login, validate the popular courses section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6: Hover around the pictures              Step 7 : Click on the picture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login        6. The picture should zoom in and read more should display along with price for the course               7. The tab should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>After login, validate the view all button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the view all button              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. The view all button should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>After login, validate "what people say" section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the scroll button &lt; or &gt; in either side of pictures        Step 7: Click on Pictures              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  </t>
+  </si>
+  <si>
+    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  7. As Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. Feedback from the person hilighted in the middle should be displayed.                                    7. Feedback from person clicked should be displayed              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                                        2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login         6. Option should be displayed on top right hand corner                                       7.Option should displayed - user name, login date time and the logout                                                  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,13 +444,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -296,64 +491,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -744,10 +931,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +985,7 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>43961</v>
       </c>
     </row>
@@ -804,62 +993,62 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>43960</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="210" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -868,277 +1057,877 @@
       <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="18">
+      <c r="L10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="16">
         <v>43961</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="16">
         <v>43962</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="18">
+      <c r="K11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="16">
         <v>43961</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="16">
         <v>43962</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="240" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="18">
+      <c r="K12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="16">
         <v>43961</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="16">
         <v>43962</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="315" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="18">
+      <c r="K13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="16">
         <v>43961</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="16">
         <v>43962</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="345" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="J14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="16">
+        <v>43961</v>
+      </c>
+      <c r="N14" s="16">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="D15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N15" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N16" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N17" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N18" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N19" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N20" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N21" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N22" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N23" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N24" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N25" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N26" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="18">
-        <v>43961</v>
-      </c>
-      <c r="N14" s="18">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="E21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="E25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="E26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E28" s="10"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="E30" s="10"/>
+      <c r="K27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N27" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N28" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N29" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N30" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N31" s="10">
+        <v>43970</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="10">
+        <v>43970</v>
+      </c>
+      <c r="N32" s="10">
+        <v>43970</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Eduma.xlsx
+++ b/Eduma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="170">
   <si>
     <t>Senario id</t>
   </si>
@@ -343,85 +343,196 @@
     <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on Logout button on the top of home page   </t>
   </si>
   <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for number of students under the Search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. The tab should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Tab is not clickable</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for number of courses under the Search bar</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>After login, validate the tap for learn anything  under the Search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "learn anything online" under the search bar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "more than 30000 courses" under the search bar   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "over 7 million students" under the search bar   </t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>After login, validate the popular courses section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6: Hover around the pictures              Step 7 : Click on the picture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login        6. The picture should zoom in and read more should display along with price for the course               7. The tab should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>After login, validate the view all button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the view all button              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. The view all button should be clickable and linked to respective page                           </t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>After login, validate "what people say" section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the scroll button &lt; or &gt; in either side of pictures        Step 7: Click on Pictures              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  </t>
+  </si>
+  <si>
+    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  7. As Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. Feedback from the person hilighted in the middle should be displayed.                                    7. Feedback from person clicked should be displayed              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                                        2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login         6. Option should be displayed on top right hand corner                                       7.Option should displayed - user name, login date time and the logout                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. Logout should be clickable andlinked to openin page                           </t>
+  </si>
+  <si>
     <t>TC017</t>
   </si>
   <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>After login, validate the tap for number of students under the Search bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                 6. The tab should be clickable and linked to respective page                           </t>
-  </si>
-  <si>
-    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Tab is not clickable</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t>After login, validate the tap for number of courses under the Search bar</t>
-  </si>
-  <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>After login, validate the tap for learn anything  under the Search bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "learn anything online" under the search bar   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "more than 30000 courses" under the search bar   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button              Step 6 : Click on the tap written "over 7 million students" under the search bar   </t>
-  </si>
-  <si>
-    <t>TC021</t>
-  </si>
-  <si>
-    <t>After login, validate the popular courses section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6: Hover around the pictures              Step 7 : Click on the picture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login        6. The picture should zoom in and read more should display along with price for the course               7. The tab should be clickable and linked to respective page                           </t>
-  </si>
-  <si>
-    <t>TC022</t>
-  </si>
-  <si>
-    <t>After login, validate the view all button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the view all button              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. The view all button should be clickable and linked to respective page                           </t>
-  </si>
-  <si>
-    <t>TC023</t>
-  </si>
-  <si>
-    <t>After login, validate "what people say" section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button      Step 6:  Click on the scroll button &lt; or &gt; in either side of pictures        Step 7: Click on Pictures              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  </t>
-  </si>
-  <si>
-    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. As Expected  7. As Expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                       6. Feedback from the person hilighted in the middle should be displayed.                                    7. Feedback from person clicked should be displayed              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Should takes the user to Eduma web site                                        2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login         6. Option should be displayed on top right hand corner                                       7.Option should displayed - user name, login date time and the logout                                                  </t>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on Phone Number              </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Sulav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link to make a call page             </t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>On success login, validate email link at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t>On success login, validate telephone link at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on Email               </t>
+  </si>
+  <si>
+    <t>1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link to email page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Not Clickable </t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>On success login, validate Social Media links at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on Social Media Links               </t>
+  </si>
+  <si>
+    <t>1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link to Social Media page</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>On success login, validate Tabs under COMPANY section at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on tabs under COMPANY section               </t>
+  </si>
+  <si>
+    <t>1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link to respective page</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>On success login, validate Tabs under LINKS section at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on tabs under LINKS section               </t>
+  </si>
+  <si>
+    <t>1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link and open to respective page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Event tab does not open desired page and shows error massage </t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>On success login, validate Tabs under SUPPORT section at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on Tabs under SUPPORT section               </t>
+  </si>
+  <si>
+    <t>1. Should takes the user to Eduma web site                         2. Should be able to click login button                                           3. Should be able to type user name                                      4.Sholud be able to type password                                    5. Should be able to Login                                                         6. Should link to respective pages</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>On success login, validate Tabs under RECOMMEND section at the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on Tabs under RECOMMEND section               </t>
+  </si>
+  <si>
+    <t>1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. bbpress tab showing error massage</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>On success login, validate Privacy, Terms, Sitemap and Purchase Tabs the bottom of the Home page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Open application Url                             Step 2:Click Login button on right hand side                                        Step 3: Enter Valid User Name          Step 4: Enter Valid Password            Step 5: Click on Login Button            Step 6: Click on privacy, terms, sitemap and purchase Tabs              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. privacy, terms and sitemap is linked to blog page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.As Expected      2. As Expected 3. As Expected 4. As Expected 5. As Expected  6. Documentaion tab showing error massage, Language packs  tabs linked to Blog page &amp; Release Status not linked to any page but takes to top of the ;page. </t>
   </si>
 </sst>
 </file>
@@ -931,12 +1042,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N32"/>
+  <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1215,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>59</v>
@@ -1625,7 +1736,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" ht="165" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>103</v>
       </c>
@@ -1642,7 +1753,7 @@
         <v>40</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>66</v>
@@ -1663,30 +1774,30 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" ht="165" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>23</v>
@@ -1703,25 +1814,25 @@
     </row>
     <row r="27" spans="3:14" ht="165" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="I27" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>41</v>
@@ -1741,25 +1852,25 @@
     </row>
     <row r="28" spans="3:14" ht="165" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>41</v>
@@ -1777,30 +1888,30 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" ht="210" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>23</v>
@@ -1815,27 +1926,27 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" ht="180" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>49</v>
@@ -1853,24 +1964,24 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" ht="210" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>129</v>
@@ -1891,42 +2002,308 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" ht="165" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="M32" s="10">
-        <v>43970</v>
+        <v>43973</v>
       </c>
       <c r="N32" s="10">
-        <v>43970</v>
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N33" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N34" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M35" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N35" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M36" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N36" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="270" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M37" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N37" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M38" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N38" s="10">
+        <v>43973</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M39" s="10">
+        <v>43973</v>
+      </c>
+      <c r="N39" s="10">
+        <v>43973</v>
       </c>
     </row>
   </sheetData>
